--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H2">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I2">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J2">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.228300666666667</v>
+        <v>1.600389</v>
       </c>
       <c r="N2">
-        <v>9.684902000000001</v>
+        <v>4.801167</v>
       </c>
       <c r="O2">
-        <v>0.7984315463537278</v>
+        <v>0.6625795902775726</v>
       </c>
       <c r="P2">
-        <v>0.7984315463537278</v>
+        <v>0.6625795902775727</v>
       </c>
       <c r="Q2">
-        <v>1.807169354093112</v>
+        <v>0.06944567987699998</v>
       </c>
       <c r="R2">
-        <v>16.264524186838</v>
+        <v>0.6250111188929999</v>
       </c>
       <c r="S2">
-        <v>0.3927351954311802</v>
+        <v>0.04624948510338452</v>
       </c>
       <c r="T2">
-        <v>0.3927351954311802</v>
+        <v>0.04624948510338452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H3">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I3">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J3">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.838011</v>
       </c>
       <c r="O3">
-        <v>0.1515271878791506</v>
+        <v>0.253652617229451</v>
       </c>
       <c r="P3">
-        <v>0.1515271878791506</v>
+        <v>0.253652617229451</v>
       </c>
       <c r="Q3">
-        <v>0.3429665216732223</v>
+        <v>0.02658560377433333</v>
       </c>
       <c r="R3">
-        <v>3.086698695059</v>
+        <v>0.239270433969</v>
       </c>
       <c r="S3">
-        <v>0.07453370300387746</v>
+        <v>0.01770550000955119</v>
       </c>
       <c r="T3">
-        <v>0.07453370300387745</v>
+        <v>0.0177055000095512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H4">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I4">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J4">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>0.202332</v>
       </c>
       <c r="N4">
-        <v>0.6069960000000001</v>
+        <v>0.606996</v>
       </c>
       <c r="O4">
-        <v>0.05004126576712158</v>
+        <v>0.08376779249297628</v>
       </c>
       <c r="P4">
-        <v>0.05004126576712158</v>
+        <v>0.08376779249297631</v>
       </c>
       <c r="Q4">
-        <v>0.113263362836</v>
+        <v>0.008779792475999998</v>
       </c>
       <c r="R4">
-        <v>1.019370265524</v>
+        <v>0.079018132284</v>
       </c>
       <c r="S4">
-        <v>0.02461446617487143</v>
+        <v>0.005847172668606192</v>
       </c>
       <c r="T4">
-        <v>0.02461446617487142</v>
+        <v>0.005847172668606193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.261615</v>
       </c>
       <c r="I5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.228300666666667</v>
+        <v>1.600389</v>
       </c>
       <c r="N5">
-        <v>9.684902000000001</v>
+        <v>4.801167</v>
       </c>
       <c r="O5">
-        <v>0.7984315463537278</v>
+        <v>0.6625795902775726</v>
       </c>
       <c r="P5">
-        <v>0.7984315463537278</v>
+        <v>0.6625795902775727</v>
       </c>
       <c r="Q5">
-        <v>1.357624181858889</v>
+        <v>0.6730249227449999</v>
       </c>
       <c r="R5">
-        <v>12.21861763673</v>
+        <v>6.057224304704999</v>
       </c>
       <c r="S5">
-        <v>0.295039752183057</v>
+        <v>0.4482216344318704</v>
       </c>
       <c r="T5">
-        <v>0.295039752183057</v>
+        <v>0.4482216344318705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.261615</v>
       </c>
       <c r="I6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.838011</v>
       </c>
       <c r="O6">
-        <v>0.1515271878791506</v>
+        <v>0.253652617229451</v>
       </c>
       <c r="P6">
-        <v>0.1515271878791506</v>
+        <v>0.253652617229451</v>
       </c>
       <c r="Q6">
         <v>0.2576513608627777</v>
@@ -818,10 +818,10 @@
         <v>2.318862247765</v>
       </c>
       <c r="S6">
-        <v>0.05599295789980453</v>
+        <v>0.17159084333533</v>
       </c>
       <c r="T6">
-        <v>0.05599295789980453</v>
+        <v>0.1715908433353301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.261615</v>
       </c>
       <c r="I7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>0.202332</v>
       </c>
       <c r="N7">
-        <v>0.6069960000000001</v>
+        <v>0.606996</v>
       </c>
       <c r="O7">
-        <v>0.05004126576712158</v>
+        <v>0.08376779249297628</v>
       </c>
       <c r="P7">
-        <v>0.05004126576712158</v>
+        <v>0.08376779249297631</v>
       </c>
       <c r="Q7">
-        <v>0.08508836206000001</v>
+        <v>0.08508836205999999</v>
       </c>
       <c r="R7">
-        <v>0.7657952585400001</v>
+        <v>0.76579525854</v>
       </c>
       <c r="S7">
-        <v>0.01849145705512631</v>
+        <v>0.05666721012070765</v>
       </c>
       <c r="T7">
-        <v>0.01849145705512631</v>
+        <v>0.05666721012070767</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.473177</v>
       </c>
       <c r="I8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.228300666666667</v>
+        <v>1.600389</v>
       </c>
       <c r="N8">
-        <v>9.684902000000001</v>
+        <v>4.801167</v>
       </c>
       <c r="O8">
-        <v>0.7984315463537278</v>
+        <v>0.6625795902775726</v>
       </c>
       <c r="P8">
-        <v>0.7984315463537278</v>
+        <v>0.6625795902775727</v>
       </c>
       <c r="Q8">
-        <v>0.5091858748504445</v>
+        <v>0.252422421951</v>
       </c>
       <c r="R8">
-        <v>4.582672873654</v>
+        <v>2.271801797559</v>
       </c>
       <c r="S8">
-        <v>0.1106565987394906</v>
+        <v>0.1681084707423177</v>
       </c>
       <c r="T8">
-        <v>0.1106565987394905</v>
+        <v>0.1681084707423177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.473177</v>
       </c>
       <c r="I9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.838011</v>
       </c>
       <c r="O9">
-        <v>0.1515271878791506</v>
+        <v>0.253652617229451</v>
       </c>
       <c r="P9">
-        <v>0.1515271878791506</v>
+        <v>0.253652617229451</v>
       </c>
       <c r="Q9">
         <v>0.0966338367718889</v>
       </c>
       <c r="R9">
-        <v>0.869704530947</v>
+        <v>0.8697045309470001</v>
       </c>
       <c r="S9">
-        <v>0.0210005269754686</v>
+        <v>0.06435627388456976</v>
       </c>
       <c r="T9">
-        <v>0.02100052697546859</v>
+        <v>0.06435627388456977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.473177</v>
       </c>
       <c r="I10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>0.202332</v>
       </c>
       <c r="N10">
-        <v>0.6069960000000001</v>
+        <v>0.606996</v>
       </c>
       <c r="O10">
-        <v>0.05004126576712158</v>
+        <v>0.08376779249297628</v>
       </c>
       <c r="P10">
-        <v>0.05004126576712158</v>
+        <v>0.08376779249297631</v>
       </c>
       <c r="Q10">
-        <v>0.03191294958800001</v>
+        <v>0.031912949588</v>
       </c>
       <c r="R10">
-        <v>0.2872165462920001</v>
+        <v>0.287216546292</v>
       </c>
       <c r="S10">
-        <v>0.006935342537123847</v>
+        <v>0.02125340970366244</v>
       </c>
       <c r="T10">
-        <v>0.006935342537123845</v>
+        <v>0.02125340970366245</v>
       </c>
     </row>
   </sheetData>
